--- a/SWP/Week2/Docs/SWP_OnlineLearning_WeeklyReport.xlsx
+++ b/SWP/Week2/Docs/SWP_OnlineLearning_WeeklyReport.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Week 2" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Week3" sheetId="2" r:id="rId5"/>
+    <sheet name="Week 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Week3" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Week 2'!$C$1:$C$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Week 2'!$C$1:$C$31</definedName>
   </definedNames>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mju8e7H0ZG0yMAgarborkIX8T8W0g=="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -213,68 +212,689 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -287,7 +907,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -299,7 +918,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -311,22 +929,19 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -516,28 +1131,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.43"/>
-    <col customWidth="1" min="2" max="2" width="43.29"/>
-    <col customWidth="1" min="3" max="3" width="20.57"/>
-    <col customWidth="1" min="4" max="4" width="10.29"/>
-    <col customWidth="1" min="5" max="5" width="11.29"/>
-    <col customWidth="1" min="6" max="26" width="9.0"/>
+    <col min="1" max="1" width="5.42592592592593" customWidth="1"/>
+    <col min="2" max="2" width="43.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="20.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="10.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="11.287037037037" customWidth="1"/>
+    <col min="6" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,18 +1170,18 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:22">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -578,15 +1195,15 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:22">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -600,15 +1217,15 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:22">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -622,15 +1239,15 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:22">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -644,15 +1261,15 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:22">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -666,15 +1283,15 @@
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:22">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -688,15 +1305,15 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:22">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -710,15 +1327,15 @@
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:22">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -726,21 +1343,21 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:22">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -748,21 +1365,21 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:22">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -770,21 +1387,21 @@
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:22">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
@@ -798,15 +1415,15 @@
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:22">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -820,15 +1437,15 @@
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="1:22">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
@@ -836,21 +1453,21 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="1:22">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -864,15 +1481,15 @@
       <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="1:22">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
@@ -886,15 +1503,15 @@
       <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:22">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
@@ -902,21 +1519,21 @@
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" spans="1:22">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
@@ -924,21 +1541,21 @@
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" spans="1:22">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
@@ -946,21 +1563,21 @@
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" spans="1:22">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>36</v>
@@ -968,21 +1585,21 @@
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" spans="1:22">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -990,21 +1607,21 @@
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" spans="1:22">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>38</v>
@@ -1012,21 +1629,21 @@
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="1:5">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>39</v>
@@ -1034,16 +1651,16 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1" spans="1:5">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>41</v>
@@ -1051,16 +1668,16 @@
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" customHeight="1" spans="1:5">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>42</v>
@@ -1068,16 +1685,16 @@
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" ht="14.25" customHeight="1" spans="1:5">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>44</v>
@@ -1085,16 +1702,16 @@
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" ht="14.25" customHeight="1" spans="1:5">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>45</v>
@@ -1102,16 +1719,16 @@
       <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" ht="14.25" customHeight="1" spans="1:5">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>46</v>
@@ -1119,33 +1736,33 @@
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1" spans="1:5">
       <c r="A29" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" ht="14.25" customHeight="1" spans="1:5">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>49</v>
@@ -1160,9 +1777,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" ht="14.25" customHeight="1" spans="1:4">
       <c r="A31" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2137,7 +2754,9 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$C$1:$C$31"/>
+  <autoFilter ref="C1:C31">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="G1:L28"/>
   </mergeCells>
@@ -2145,56 +2764,50 @@
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Fixing"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"To Do"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Doing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C5 C7:C10">
-      <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh"</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C6 C11:C31">
       <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh,Cả nhóm"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D31">
       <formula1>"To Do,Doing,Testing,Fixing,Done"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C5 C7:C10">
+      <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh"</formula1>
+    </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,199 +2824,199 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6">
-        <v>45068.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="2">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="6">
-        <v>45068.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="2">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="6">
-        <v>45072.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="E6" s="2">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="6">
-        <v>45073.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="6">
-        <v>45068.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="6">
-        <v>45071.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45069.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="6">
-        <v>45072.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" s="2">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:4">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" spans="3:4">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="3:4">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="3:4">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="3:4">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" spans="3:4">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="3:4">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" customHeight="1" spans="3:4">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="3:4">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" customHeight="1" spans="3:4">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="3:4">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" customHeight="1" spans="3:4">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="3:4">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="3:4">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="3:4">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
@@ -2412,28 +3025,20 @@
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Fixing"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D24">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D24">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D24">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"To Do"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D24">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Doing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C24">
       <formula1>"Sơn,Mạnh,Tú Anh,Quốc Anh,Linh,Cả nhóm"</formula1>
     </dataValidation>
@@ -2441,6 +3046,7 @@
       <formula1>"To Do,Doing,Testing,Fixing,Done"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>